--- a/artfynd/A 60433-2021 artfynd.xlsx
+++ b/artfynd/A 60433-2021 artfynd.xlsx
@@ -28997,7 +28997,7 @@
         <v>130581319</v>
       </c>
       <c r="B254" t="n">
-        <v>89189</v>
+        <v>89193</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -29104,7 +29104,7 @@
         <v>130581317</v>
       </c>
       <c r="B255" t="n">
-        <v>83085</v>
+        <v>83089</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -29211,7 +29211,7 @@
         <v>130581318</v>
       </c>
       <c r="B256" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
